--- a/medicine/Mort/Tuerie_en_milieu_scolaire/Tuerie_en_milieu_scolaire.xlsx
+++ b/medicine/Mort/Tuerie_en_milieu_scolaire/Tuerie_en_milieu_scolaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une tuerie en milieu scolaire (école) désigne dans cet article les actes criminels ayant entraîné la mort d'une ou plusieurs personnes dans l'enceinte d'un établissement scolaire. Contrairement aux autres formes de violence scolaire, il n'y a généralement pas qu'une seule cible, l'objectif principal étant de tuer le maximum de personnes. Ces actes peuvent être perpétrés par des étudiants, des membres du personnel, des anciens étudiants voire des personnes extérieures à l'établissement, le plus souvent par fusillade.
 Ces tueries font l'objet d'une médiatisation internationale. Elles peuvent provoquer ou relancer des débats sur la discipline scolaire ou policière, ou la circulation et l'accessibilité des armes à feu sur le territoire et les violences par arme à feu aux États-Unis.
@@ -512,10 +524,12 @@
           <t>Aux États-Unis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une étude publiée en mai 2002 par le United States Secret Service et le département de l'Éducation des États-Unis indique qu'il n'existe pas de profil-type des meurtriers[1]. Les chercheurs ont constaté que les tueurs ne commettent pas un acte irréfléchi : ils planifient, ils achètent des armes, ils racontent à d'autres ce qu'ils projettent. Leur travail de préparation peut être très long. La majorité vivaient avec leurs deux parents biologiques (44 %) ou un parent biologique et un beau-parent (19 %), d'autres étaient dans des familles monoparentales (21 %) ou dans des familles adoptives (5 %). Quelques-uns étaient solitaires, mais la plupart du temps ils avaient de nombreux amis[2].
-Une étude publiée le 20 avril 2018 dans le Journal of Child and Family Studies recense les fusillades de masse en milieu scolaire (en considérant comme telles celles où au moins quatre personnes ont été tuées ou blessées, à l'exclusion des règlements de comptes entre bandes rivales ainsi que les fusillades étant survenues dans des universités) et le nombre d’enfants de 5 à 18 ans tués à ces occasions depuis 1940. Le premier fait recensé remonte à 1940 lorsque le directeur d’un collège a tué des agents administratifs et des enseignants avant de se suicider, pensant qu’il allait être renvoyé à la fin de l’année scolaire. Le deuxième remonte à 1979 lorsque Brenda Ann Spencer âgée de 16 ans et mentalement fragile tue dans une école primaire deux adultes et en a blessé un troisième ainsi que huit élèves. De 2000 à 2018, l’étude dénombre 66 décès dans 22 fusillades, soit davantage que les 55 décès des 22 fusillades survenues entre 1940 et 1999. L’étude note que 60 % des fusillades de masse examinées par les chercheurs ont été perpétrées au XXe siècle par des adolescents de 11 à 18 ans, contre 77 % depuis les années 2000[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une étude publiée en mai 2002 par le United States Secret Service et le département de l'Éducation des États-Unis indique qu'il n'existe pas de profil-type des meurtriers. Les chercheurs ont constaté que les tueurs ne commettent pas un acte irréfléchi : ils planifient, ils achètent des armes, ils racontent à d'autres ce qu'ils projettent. Leur travail de préparation peut être très long. La majorité vivaient avec leurs deux parents biologiques (44 %) ou un parent biologique et un beau-parent (19 %), d'autres étaient dans des familles monoparentales (21 %) ou dans des familles adoptives (5 %). Quelques-uns étaient solitaires, mais la plupart du temps ils avaient de nombreux amis.
+Une étude publiée le 20 avril 2018 dans le Journal of Child and Family Studies recense les fusillades de masse en milieu scolaire (en considérant comme telles celles où au moins quatre personnes ont été tuées ou blessées, à l'exclusion des règlements de comptes entre bandes rivales ainsi que les fusillades étant survenues dans des universités) et le nombre d’enfants de 5 à 18 ans tués à ces occasions depuis 1940. Le premier fait recensé remonte à 1940 lorsque le directeur d’un collège a tué des agents administratifs et des enseignants avant de se suicider, pensant qu’il allait être renvoyé à la fin de l’année scolaire. Le deuxième remonte à 1979 lorsque Brenda Ann Spencer âgée de 16 ans et mentalement fragile tue dans une école primaire deux adultes et en a blessé un troisième ainsi que huit élèves. De 2000 à 2018, l’étude dénombre 66 décès dans 22 fusillades, soit davantage que les 55 décès des 22 fusillades survenues entre 1940 et 1999. L’étude note que 60 % des fusillades de masse examinées par les chercheurs ont été perpétrées au XXe siècle par des adolescents de 11 à 18 ans, contre 77 % depuis les années 2000.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Terrorisme, guerre civile et criminalité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Entre 2009 et 2012, plus de trente pays ont connu une série d'attaques ciblées sur les écoles, les enseignants et les étudiants par des groupes armés[4].
-Les écoles sont visées, entre autres, par certains groupes terroristes. Notons le mouvement Boko Haram qui s'est spécifiquement déclaré opposé à l'éducation des filles. Le Pakistan est le pays connaissant le plus d'attaques d'établissements scolaires au monde avec 838 attaques recensées entre 2009 et 2012[5]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entre 2009 et 2012, plus de trente pays ont connu une série d'attaques ciblées sur les écoles, les enseignants et les étudiants par des groupes armés.
+Les écoles sont visées, entre autres, par certains groupes terroristes. Notons le mouvement Boko Haram qui s'est spécifiquement déclaré opposé à l'éducation des filles. Le Pakistan est le pays connaissant le plus d'attaques d'établissements scolaires au monde avec 838 attaques recensées entre 2009 et 2012. 
 </t>
         </is>
       </c>
@@ -576,12 +592,12 @@
           <t>Exemples de tueries en milieu scolaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Ci-dessous, une liste non exhaustive des tueries en milieu scolaire.
-Canada
-États-Unis
-Autres pays</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ci-dessous, une liste non exhaustive des tueries en milieu scolaire.
+</t>
         </is>
       </c>
     </row>
@@ -611,17 +627,91 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Théâtre
-Le 20 novembre de Lars Norén met en scène un jeune homme adepte de jeux vidéo qui s'apprête à entrer dans une école pour y perpétrer un massacre. La pièce est un monologue dans lequel le personnage justifie son acte.
-Romans sur les massacres scolaires
-Rage (1977) de Stephen King.
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 20 novembre de Lars Norén met en scène un jeune homme adepte de jeux vidéo qui s'apprête à entrer dans une école pour y perpétrer un massacre. La pièce est un monologue dans lequel le personnage justifie son acte.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tuerie_en_milieu_scolaire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tuerie_en_milieu_scolaire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Dans la culture</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans sur les massacres scolaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Rage (1977) de Stephen King.
 Hate List (2009) de Jennifer Brown.
 Carnages (2011) de Maxime Chattam.
 Solitude Armée (2012) de Marilou Ardisson
 Rien de plus grand (2016), de Malin Persson Giolito
-54 minutes (2016) de Marieke Nijkamp
-Films ou séries télévisées sur les massacres scolaires
-If.... (1968), film britannique de Lindsay Anderson, avec Malcolm McDowell.
+54 minutes (2016) de Marieke Nijkamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tuerie_en_milieu_scolaire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tuerie_en_milieu_scolaire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Dans la culture</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Films ou séries télévisées sur les massacres scolaires</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>If.... (1968), film britannique de Lindsay Anderson, avec Malcolm McDowell.
 The Deadly Tower (en) (1975), de Jerry Jameson, avec Kurt Russell.
 Fatal Games (Heathers – 1989) de Michael Lehmann.
 Fièvre à Columbus University (Higher Learning) est un film américain réalisé par John Singleton en 1995 dans une université fictive.
@@ -648,9 +738,43 @@
 S.W.A.T. : saison 2, épisode 11
 Quicksand (2019)
 Vox Lux (2018) de Brady Corbet
-The Fallout (2021) de Megan Park
-Chansons sur les massacres scolaires
-Ohio, de Neil Young en 1970.
+The Fallout (2021) de Megan Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tuerie_en_milieu_scolaire</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tuerie_en_milieu_scolaire</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Dans la culture</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Chansons sur les massacres scolaires</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Ohio, de Neil Young en 1970.
 Arrêtez-les de Mario Pelchat.
 Jeremy, de Pearl Jam.
 Rival, de Pearl Jam.
